--- a/invoice_gen/TEMPLATE/JLFMH.xlsx
+++ b/invoice_gen/TEMPLATE/JLFMH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\gen_inv\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C5C98-17CE-4857-BB2A-1BB9F3D7C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C926185-CB00-42B7-8CDA-759FFB088DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="订单扫描" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">订单扫描!$A$1:$N$382</definedName>
   </definedNames>
   <calcPr calcId="191029" fullPrecision="0"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>DAP:</t>
-  </si>
-  <si>
-    <t>BINH DUONG</t>
   </si>
   <si>
     <r>
@@ -113,12 +110,6 @@
     <t>Timberland Co.,Ltd</t>
   </si>
   <si>
-    <t>Group 2, Binh Chanh Hamlet, Khanh Binh Agency, Tan Uyen City,</t>
-  </si>
-  <si>
-    <t>Binh Duong Province, Vietnam.</t>
-  </si>
-  <si>
     <t>P+84 989 777 156  Contact: Mai Ca    Email:vn01@rm-motion.com,and Vn-custom03@manwahgroup.com</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">SHIP: </t>
-  </si>
-  <si>
-    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO BINH DUONG PROVINCE, VIETNAM.</t>
   </si>
   <si>
     <t>Country of Original Cambodia</t>
@@ -269,6 +257,15 @@
   </si>
   <si>
     <t>JFTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. 35, Group 2, Binh Chanh Quarter, Tan Hiep Ward, Ho Chi Minh city, Vietnam.</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
   </si>
 </sst>
 </file>
@@ -697,6 +694,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -712,46 +721,34 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -776,13 +773,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>875665</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>738505</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -820,14 +817,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>471805</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>52705</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,13 +866,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>238602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1512094</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>354173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -913,13 +910,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409892</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>295910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>245109</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>668655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1214,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1227,7 +1224,7 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="41" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -1237,70 +1234,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="83.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="39"/>
@@ -1312,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
@@ -1328,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
@@ -1342,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
@@ -1356,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1">
@@ -1367,10 +1364,10 @@
       <c r="C11" s="47"/>
       <c r="E11" s="39"/>
       <c r="F11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
@@ -1384,10 +1381,10 @@
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1">
       <c r="A13" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1398,7 +1395,7 @@
     <row r="14" spans="1:7" ht="25.5" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1407,47 +1404,47 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="39"/>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="39"/>
-      <c r="B16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" ht="27.75" customHeight="1">
+      <c r="F17" s="41"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
     </row>
     <row r="18" spans="1:23" ht="27.75" customHeight="1">
-      <c r="F18" s="41"/>
+      <c r="A18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
     </row>
     <row r="19" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A19" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1476,109 +1473,100 @@
       <c r="W21" s="36"/>
     </row>
     <row r="22" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-    </row>
-    <row r="23" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="51"/>
-    </row>
-    <row r="24" spans="1:23" ht="42" customHeight="1">
-      <c r="A24" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="39"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:23" ht="42" customHeight="1">
+      <c r="A23" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:23" ht="61.5" customHeight="1">
+      <c r="A24" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="39"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="1:23" ht="61.5" customHeight="1">
-      <c r="A25" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="39"/>
+    <row r="25" spans="1:23" ht="42" customHeight="1">
+      <c r="A25" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="1:23" ht="42" customHeight="1">
+    <row r="26" spans="1:23" ht="24.75" customHeight="1">
       <c r="A26" s="67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A27" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-    </row>
-    <row r="28" spans="1:23" s="40" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="1:23" ht="42" customHeight="1">
-      <c r="E29" s="47"/>
-      <c r="F29" s="59" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+    </row>
+    <row r="27" spans="1:23" s="40" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="1:23" ht="42" customHeight="1">
+      <c r="E28" s="47"/>
+      <c r="F28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:23" ht="24" customHeight="1">
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:23" ht="24" customHeight="1">
+      <c r="E29" s="39"/>
+      <c r="F29" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="42" customHeight="1">
       <c r="E30" s="39"/>
-      <c r="F30" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="42" customHeight="1">
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:23" ht="53.1" customHeight="1">
       <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:23" ht="53.1" customHeight="1">
-      <c r="E32" s="39"/>
-      <c r="F32" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="62"/>
-    </row>
+      <c r="F31" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="62"/>
+    </row>
+    <row r="32" spans="1:23" ht="27.75" customHeight="1"/>
     <row r="33" ht="27.75" customHeight="1"/>
     <row r="34" ht="27.75" customHeight="1"/>
-    <row r="35" ht="27.75" customHeight="1"/>
-    <row r="36" ht="24.75" customHeight="1"/>
+    <row r="35" ht="24.75" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
     <row r="37" ht="21" customHeight="1"/>
     <row r="38" ht="21" customHeight="1"/>
     <row r="39" ht="21" customHeight="1"/>
@@ -1586,30 +1574,29 @@
     <row r="41" ht="21" customHeight="1"/>
     <row r="42" ht="21" customHeight="1"/>
     <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="25.5" customHeight="1"/>
+    <row r="44" ht="25.5" customHeight="1"/>
+    <row r="45" ht="21" customHeight="1"/>
     <row r="46" ht="21" customHeight="1"/>
     <row r="47" ht="21" customHeight="1"/>
     <row r="48" ht="21" customHeight="1"/>
     <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="21" customHeight="1"/>
-    <row r="51" ht="17.25" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
+    <row r="50" ht="17.25" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:G27"/>
   </mergeCells>
-  <conditionalFormatting sqref="J24:J35">
+  <conditionalFormatting sqref="J23:J34">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
@@ -1625,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1651,98 +1638,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="A2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="54" customHeight="1">
-      <c r="A6" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="A6" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
@@ -1759,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
@@ -1777,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
@@ -1793,13 +1780,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1810,7 +1797,7 @@
         <v>DAP:</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="K10" s="35"/>
     </row>
@@ -1842,10 +1829,10 @@
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1859,7 +1846,7 @@
     <row r="14" spans="1:12" ht="25.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1874,8 +1861,8 @@
     </row>
     <row r="15" spans="1:12" ht="25.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1890,8 +1877,8 @@
     </row>
     <row r="16" spans="1:12" ht="21.95" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="15" t="s">
-        <v>20</v>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1904,25 +1891,23 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="18.95" customHeight="1">
       <c r="A19" s="17"/>
@@ -1945,178 +1930,171 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+    <row r="22" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" ht="42" customHeight="1">
+      <c r="A23" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13" ht="42" customHeight="1">
-      <c r="A24" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+    <row r="24" spans="1:13" ht="61.5" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" ht="61.5" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:13" ht="44.1" customHeight="1">
+      <c r="A25" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:13" ht="44.1" customHeight="1">
-      <c r="A26" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A27" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-    </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-    </row>
-    <row r="29" spans="1:13" ht="42" customHeight="1">
-      <c r="H29" s="12" t="s">
+    <row r="26" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A26" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+    </row>
+    <row r="28" spans="1:13" ht="42" customHeight="1">
+      <c r="H28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="24" customHeight="1">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="69.75" customHeight="1">
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="69.75" customHeight="1">
+    <row r="31" spans="1:13" ht="42" customHeight="1">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="42" customHeight="1">
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+    </row>
+    <row r="32" spans="1:13" ht="53.1" customHeight="1">
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-    </row>
-    <row r="33" spans="8:11" ht="53.1" customHeight="1">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="8:11" ht="27.75" customHeight="1"/>
-    <row r="35" spans="8:11" ht="27.75" customHeight="1"/>
-    <row r="36" spans="8:11" ht="27.75" customHeight="1"/>
-    <row r="37" spans="8:11" ht="24.75" customHeight="1"/>
-    <row r="38" spans="8:11" ht="21" customHeight="1"/>
-    <row r="39" spans="8:11" ht="21" customHeight="1"/>
-    <row r="40" spans="8:11" ht="21" customHeight="1"/>
-    <row r="41" spans="8:11" ht="21" customHeight="1"/>
-    <row r="42" spans="8:11" ht="21" customHeight="1"/>
-    <row r="43" spans="8:11" ht="21" customHeight="1"/>
-    <row r="44" spans="8:11" ht="21" customHeight="1"/>
-    <row r="45" spans="8:11" ht="21" customHeight="1"/>
-    <row r="46" spans="8:11" ht="25.5" customHeight="1"/>
-    <row r="47" spans="8:11" ht="21" customHeight="1"/>
-    <row r="48" spans="8:11" ht="21" customHeight="1"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" ht="27.75" customHeight="1"/>
+    <row r="34" ht="27.75" customHeight="1"/>
+    <row r="35" ht="27.75" customHeight="1"/>
+    <row r="36" ht="24.75" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
+    <row r="45" ht="25.5" customHeight="1"/>
+    <row r="46" ht="21" customHeight="1"/>
+    <row r="47" ht="21" customHeight="1"/>
+    <row r="48" ht="21" customHeight="1"/>
     <row r="49" ht="21" customHeight="1"/>
     <row r="50" ht="21" customHeight="1"/>
-    <row r="51" ht="21" customHeight="1"/>
-    <row r="52" ht="17.25" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
+    <row r="51" ht="17.25" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:L26"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="K32:L32"/>
   </mergeCells>
-  <conditionalFormatting sqref="O24:O36">
+  <conditionalFormatting sqref="O23:O35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
